--- a/组件化方案对比.xlsx
+++ b/组件化方案对比.xlsx
@@ -3219,10 +3219,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/组件化方案对比.xlsx
+++ b/组件化方案对比.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t>开源时间</t>
     <rPh sb="0" eb="1">
@@ -2815,6 +2815,74 @@
     <rPh sb="0" eb="1">
       <t>l'j'q</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到DDComponentForAndroid</t>
+    <rPh sb="0" eb="1">
+      <t>d'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModularizationArchitecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里Arouter
+(网上很多组件化方案的路由引擎)</t>
+    <rPh sb="0" eb="1">
+      <t>a'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wang'shang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zu'jian'h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yin'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚美组件化方案
+（基于[聚美Router）</t>
+    <rPh sb="0" eb="1">
+      <t>ju'mei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'jian'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityRouter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2908,7 +2976,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2930,6 +2998,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3216,28 +3287,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="A1:G27"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="59.83203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="13.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3260,130 +3329,130 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -3398,300 +3467,300 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="136" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="102" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
@@ -3699,7 +3768,7 @@
     </row>
     <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -3707,14 +3776,14 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
@@ -3722,7 +3791,7 @@
     </row>
     <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -3743,15 +3812,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -3766,55 +3835,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>101</v>
@@ -3829,32 +3898,55 @@
         <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>103</v>
       </c>
     </row>

--- a/组件化方案对比.xlsx
+++ b/组件化方案对比.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="137">
   <si>
     <t>开源时间</t>
     <rPh sb="0" eb="1">
@@ -946,10 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ModularizationArchitecture](https://github.com/SpinyTech/ModularizationArchitecture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ActivityRouter](https://github.com/mzule/ActivityRouter)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1401,6 +1397,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>组件总线</t>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>组件向外提供服务</t>
     <rPh sb="2" eb="3">
       <t>xiang'wai</t>
@@ -1436,38 +1442,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>f'f</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件总线（二级总线）</t>
-    <rPh sb="0" eb="1">
-      <t>zu'jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'xian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>er'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zong'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件总线（一级总线）</t>
-    <rPh sb="0" eb="1">
-      <t>zu'jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'xian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yi'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zong'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2608,6 +2582,9 @@
   </si>
   <si>
     <t>高</t>
+  </si>
+  <si>
+    <t>高</t>
     <rPh sb="0" eb="1">
       <t>gao</t>
     </rPh>
@@ -2883,6 +2860,298 @@
   </si>
   <si>
     <t>ActivityRouter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ群</t>
+    <rPh sb="2" eb="3">
+      <t>qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>592278657 / 336755078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混淆配置</t>
+    <rPh sb="0" eb="1">
+      <t>hun'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有下沉接口、框架中相关接口的实现类等</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'ch</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>k'jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'xian'lei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架中的所有类</t>
+    <rPh sb="0" eb="1">
+      <t>k'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨app调用开关及权限设置</t>
+    <rPh sb="0" eb="1">
+      <t>kua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai'guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>quan'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>she'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ModularizationArchitecture](https://github.com/SpinyTech/ModularizationArchitecture)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`-dontwarn com.spinytech.**`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解定义路由及参数自动注入，侵入性高</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'diong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhu'ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qin'ru'x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件定义代码侵入性</t>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qin'ru'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件调用代码侵入性</t>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>q'ru'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增IComponent接口的实现类来定义组件，侵入性低</t>
+    <rPh sb="0" eb="1">
+      <t>xin'z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'xian'lei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qin'ru'x</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增接口实现类，侵入性低</t>
+    <rPh sb="0" eb="1">
+      <t>xin'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'xian'lei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qin'ru'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解定义路由，侵入性高</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qin'ru'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架中的所有类及框架相关接口的实现类</t>
+    <rPh sb="0" eb="1">
+      <t>k'jia'zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>k'jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'xan'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有RouterRuleCreator类</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>lei</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2890,7 +3159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2947,6 +3216,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2965,7 +3239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2975,8 +3249,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3002,17 +3278,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3287,26 +3571,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="68.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="59.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.83203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="13.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3317,62 +3603,62 @@
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -3423,16 +3709,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>70</v>
@@ -3469,7 +3755,7 @@
     </row>
     <row r="8" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -3498,7 +3784,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -3518,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -3541,22 +3827,22 @@
         <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.15">
@@ -3572,7 +3858,7 @@
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -3589,46 +3875,46 @@
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3636,10 +3922,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>40</v>
@@ -3656,25 +3942,25 @@
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>59</v>
+      <c r="G16" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3697,101 +3983,101 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -3799,22 +4085,22 @@
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -3835,15 +4121,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -3858,96 +4144,211 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>81</v>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="31" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="27" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>103</v>
+    <row r="33" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="1">
+        <v>686844583</v>
+      </c>
+      <c r="C33" s="9">
+        <v>693097923</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="9">
+        <v>108895031</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/组件化方案对比.xlsx
+++ b/组件化方案对比.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="markdown" sheetId="1" r:id="rId1"/>
+    <sheet name="截图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="162">
   <si>
     <t>开源时间</t>
     <rPh sb="0" eb="1">
@@ -3151,6 +3152,1510 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">切换library/application方式编译，在module/gradle.properties中切换`isRunAlone=trueOrFalse`
+</t>
+    <rPh sb="26" eb="27">
+      <t>z</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>qie'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 通过apt生成自动注入代码
+2. 在onCreate中调用`AutowiredService.Factory.getInstance().create().autowire(this);`或者继承BaseActivity</t>
+    <rPh sb="3" eb="4">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sh'ch</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhu'ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>z</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ji'ch</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 通过apt生成解析参数的代码
+2. 在onCreate方法中调用`ARouter.getInstance().inject(this);`实现自动注入</t>
+    <rPh sb="3" eb="4">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sh'ch</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie'xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>z</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>f'f</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zhu'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步直接返回结果或异步回调结果:
+`CCResult result = CC.obtainBuilder("ComponentA").build().call();`
+或
+`String callId = CC.obtainBuilder("ComponentA").build().callAsync(new IComponentCallback(){...});`</t>
+    <rPh sb="0" eb="1">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui'diao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onActivityResult返回结果:
+`UIRouter.getInstance().openUri(getActivity(), url, bundle);`</t>
+    <rPh sb="16" eb="17">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RouterResponse response = LocalRouter.getInstance(MaApplication.getMaApplication())
+    .route(MainActivity.this, RouterRequest.obtain(MainActivity.this)
+            .domain("com.spinytech.maindemo:music")
+            .provider("music")
+            .action("shutdown"));
+String temp = response.getData();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onActivityResult返回结果:
+`ARouter.getInstance().build("/test/activity").navigation();`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onActivityResult返回结果:
+`Router.create(url).open(context);`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onActivityResult返回结果:
+`Routers.open(context, url);`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt生成各module的路由表
+TrasnformAPI + javassist将IApplicationLike的注册代码生成到自定义application.onCreate方法中，无需手动维护组件列表</t>
+    <rPh sb="3" eb="4">
+      <t>sh'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>d</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>dai'm</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>sheng'c</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zi'ding'y</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>f'f</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现自动注册，
+1. Action列表在其所属的Provider中注册
+2. Provider在其所属的ApplicationLogic中注册
+3. ApplicationLogic在主app的Application中注册</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>z</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>z</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>d</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>z</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>d</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. apt生成各module的路由表
+2. Arouter初始化时扫描所有dex找出指定包名下的路由表，通过反射进行统一注册</t>
+    <rPh sb="6" eb="7">
+      <t>sh'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>sao'm</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhao'chu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>bao'm</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>d</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fan'she</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>j'x</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>tong'yi</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. apt生成各module的路由表pkg.RouterRuleCreator类
+2. 在ComponentPackages中定义所有RouterRuleCreator的包名
+3.在BaseApplication中反射所有的包名找到所有路由表RouterRuleCreator
+4. 需要手动维护ComponentPackages类中的包名列表</t>
+    <rPh sb="6" eb="7">
+      <t>sh'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lu'you'biao</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>z</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>d</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>bao'm</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>z</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>fan'she</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>d</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>bao'm</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>zhao'dao</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>shou'dong</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>wei'hu</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>d</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>bao'm</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. apt生成各module的路由表
+2. apt在application的module通过Modules注解生成RouterInit进行注册
+3. 需要手动维护Modules注解中的组件列表</t>
+    <rPh sb="6" eb="7">
+      <t>sh'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>z</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>d</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zhu'jie</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>sh'ch</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>j'x</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>shou'dong</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>wei'hu</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>zhu'jie</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>d</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件module始终以library方式编译，额外提供app壳子，可以按需将多个组件依赖进来一起打包。
+好处是所有组件调试时包名相同，能满足分享及地图等第三方SDK对包名的要求</t>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bian'yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>e'wai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ke'zi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>an'xu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jin'lai</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>da'bao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>hao'chu'shi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>tiao'shi</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>bao'm</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>xiang't</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>fen'x</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>di'san'f</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>bao'm</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>d</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>yao'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换library/application方式编译，提供2种方式：
+1. module/build.gradle中切换`ext.runAsApp=trueOrFalse`
+2. 在local.properties中切换`moduleName=trueOrFalse`（推荐使用的方式，不会提交到代码仓库中）</t>
+    <rPh sb="0" eb="1">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bian'yi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>z</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>tui'jian</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>shi'y</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>d</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bu'hui</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>c'ku</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件同时安装在设备上即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实际开发中一般是当前正在开发的组件和主app中的组件互相调用.
+通过广播 + Service + LocalSocket实现，没有UrlScheme调用时弹出的选择框</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'zh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'ke</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>s</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>d'q</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zheng'z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>kai'f</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>he</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>d</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hu'xiang</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>g'bo</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>mei'y</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>tan'c</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>d</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>xuan'ze'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件同时安装在设备上即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实际开发中一般是当前正在开发的组件和主app中的组件互相调用.
+通过AIDL实现</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'zh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'ke</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>s</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>d'q</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zheng'z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>kai'f</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>he</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>d</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hu'xiang</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UrlScheme原生支持跨app调用,组件同时安装在设备上即可
+通过中介Activity转发:RouterActivity</t>
+    <rPh sb="9" eb="10">
+      <t>yuan'sh</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kua</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong'jie</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhuan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过插件实现只在打apk包时才添加依赖，编码期间不能直接调用其它组件的代码</t>
+    <rPh sb="0" eb="1">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>t'jia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bian'ma</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>qi'jian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>q't</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>d</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 可以跨app调用，初期改造时即可单独编译组件运行
+2. 提供统一的组件调用及实现方式（不管是否跨app调用、页面跳转、服务调用、同步/异步调用）
+3. 组件自动注册，无需维护
+4. 提供了ActionProcessor按需加载的支持</t>
+    <rPh sb="3" eb="4">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu'qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gai'zao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'ke</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dan'du</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bian'yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yun'x</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>tong'yi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>d</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bu'guan</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>s'f</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>kua</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>wu'xu</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>wei'hu</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>l</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>an'xu</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>jia'z</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>d</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>zhi'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 编码期间组件依赖通过插件进行隔离，避免直接调用其它组件的代码
+2. 提供了兼容ARouter的方案
+3. 组件自动注册，无需维护</t>
+    <rPh sb="5" eb="6">
+      <t>qi'jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cha'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>j'x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ge'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi'mian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>q't</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>d</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ti'ogng</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>l</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jian'r</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 可以跨app、app内跨进程调用
+2. 组件运行在各自进程中，单独运行与联合打包切换时需要修改进程名称
+3. 组件需指定同步实现还是异步实现，调用组件时统一拿到RouterResponse作为返回值，可以自行决定同步还是异步方式调用RouterResponse.getData()来获取结果，但异步获取时需要自己维护线程</t>
+    <rPh sb="3" eb="4">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua'jin'c</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kua</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yun'x</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>z</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin'c</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dan'du</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yun'x</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>lian'he</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>da'bao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>x'g</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>j'c</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>m'ch</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>hai's</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>tong'yi</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>na'dao</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>zuo'wei</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>fan'h'zhi</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>zi'xing</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>j'ding</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>hai's</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>diao'y</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>jie'ugo</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>yi'bu</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>wei'hu</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>xian'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 阿里出品，使用者众多，QQ群里交流比较活跃
+2. 自动注册插件正式启用之前扫描所有dex完成注册的方式效率较低且有加固厂商兼容性问题
+3. 分级按需加载</t>
+    <rPh sb="3" eb="4">
+      <t>a'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'yong'zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong'duo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jiao'liu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>huo'y</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cha'j</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zheng'shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qi'yong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi'q</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>sao'm</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>wan'ch</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>d</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>xiao'lv</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jiao'di</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>you</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>jia'gu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>chang'shang</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>jian'r'x</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>fen'ji</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>an'xu</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>jia'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 业内最早的组件化支持库
+2. 通过注解静态方法的方式暴露服务</t>
+    <rPh sb="3" eb="4">
+      <t>ye'nei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui'zao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu'jian'h</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ku</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhu'jie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>j't</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>f'f</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bao'lu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>f'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3574,10 +5079,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3822,7 +5327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="119" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3868,7 +5373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -4006,7 +5511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="52" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +5534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -4348,6 +5853,726 @@
         <v>108895031</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="13.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="69" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="1">
+        <v>686844583</v>
+      </c>
+      <c r="C30" s="9">
+        <v>693097923</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="9">
+        <v>108895031</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>121</v>
       </c>
     </row>

--- a/组件化方案对比.xlsx
+++ b/组件化方案对比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="markdown" sheetId="1" r:id="rId1"/>
@@ -2836,26 +2836,6 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>yin'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚美组件化方案
-（基于[聚美Router）</t>
-    <rPh sb="0" eb="1">
-      <t>ju'mei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zu'jian'h</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ji'yu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ju'mei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4656,6 +4636,26 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>f'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚美组件化方案
+（基于聚美Router）</t>
+    <rPh sb="0" eb="1">
+      <t>ju'mei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'jian'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ju'mei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5082,7 +5082,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5108,7 +5108,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>61</v>
@@ -5160,10 +5160,10 @@
         <v>115</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5490,22 +5490,22 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -5697,30 +5697,30 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>101</v>
@@ -5743,25 +5743,25 @@
     </row>
     <row r="29" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5835,7 +5835,7 @@
     </row>
     <row r="33" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1">
         <v>686844583</v>
@@ -5844,16 +5844,16 @@
         <v>693097923</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" s="9">
         <v>108895031</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5871,7 +5871,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5903,10 +5903,10 @@
         <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -6009,13 +6009,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -6052,22 +6052,22 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.15">
@@ -6147,19 +6147,19 @@
         <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="92" customHeight="1" x14ac:dyDescent="0.15">
@@ -6167,10 +6167,10 @@
         <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>58</v>
@@ -6179,7 +6179,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>58</v>
@@ -6210,22 +6210,22 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -6236,13 +6236,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -6251,7 +6251,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6262,7 +6262,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
@@ -6397,50 +6397,50 @@
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>104</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>101</v>
@@ -6463,25 +6463,25 @@
     </row>
     <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -6555,7 +6555,7 @@
     </row>
     <row r="30" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1">
         <v>686844583</v>
@@ -6564,16 +6564,16 @@
         <v>693097923</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="9">
         <v>108895031</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/组件化方案对比.xlsx
+++ b/组件化方案对比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="markdown" sheetId="1" r:id="rId1"/>
@@ -614,64 +614,6 @@
   </si>
   <si>
     <t>`ARouter.getInstance().navigation(HelloService.class).sayHello();`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. apt生成各module的路由表&lt;br&gt;2. Arouter初始化时扫描所有dex找出指定包名下的路由表，通过反射进行统一注册</t>
-    <rPh sb="6" eb="7">
-      <t>sh'c</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>d</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lu'you'b</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>sao'm</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>zhao'chu</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>bao'm</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>d</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>lu'you'b</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>t'guo</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>fan'she</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>j'x</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>tong'yi</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>zhu'ce</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2256,106 +2198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 阿里出品，使用者众多，QQ群里交流比较活跃&lt;br&gt;2. 自动注册插件正式启用之前扫描所有dex完成注册的方式效率较低且有加固厂商兼容性问题&lt;br&gt;3. 分级按需加载</t>
-    <rPh sb="3" eb="4">
-      <t>a'li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chu'pin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'yong'zhe</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhong'duo</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>qun</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>li</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>jiao'liu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bi'jiao</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>huo'y</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>cha'j</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zheng'shi</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>qi'yong</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zhi'q</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>sao'm</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>wan'ch</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>d</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>fang'shi</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>xiao'lv</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>jiao'di</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>you</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>jia'gu</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>chang'shang</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>jian'r'x</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>wen't</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>fen'ji</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>an'xu</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>jia'z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 可以跨app调用，初期改造时即可单独编译组件运行&lt;br&gt;2. 提供统一的组件调用及实现方式（不管是否跨app调用、页面跳转、服务调用、同步/异步调用）&lt;br&gt;3. 组件自动注册，无需维护&lt;br&gt;4. 提供了ActionProcessor按需加载的支持</t>
     <rPh sb="3" eb="4">
       <t>ke'yi</t>
@@ -3410,65 +3252,6 @@
       <t>zhong</t>
     </rPh>
     <rPh sb="110" eb="111">
-      <t>zhu'ce</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. apt生成各module的路由表
-2. Arouter初始化时扫描所有dex找出指定包名下的路由表，通过反射进行统一注册</t>
-    <rPh sb="6" eb="7">
-      <t>sh'c</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>d</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lu'you'b</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>sao'm</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zhao'chu</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>bao'm</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>d</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>lu'you'b</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>t'guo</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>fan'she</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>j'x</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>tong'yi</t>
-    </rPh>
-    <rPh sb="61" eb="62">
       <t>zhu'ce</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4491,108 +4274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 阿里出品，使用者众多，QQ群里交流比较活跃
-2. 自动注册插件正式启用之前扫描所有dex完成注册的方式效率较低且有加固厂商兼容性问题
-3. 分级按需加载</t>
-    <rPh sb="3" eb="4">
-      <t>a'li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chu'pin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'yong'zhe</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhong'duo</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>qun</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>li</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>jiao'liu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bi'jiao</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>huo'y</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>cha'j</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>zheng'shi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>qi'yong</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>zhi'q</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>sao'm</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>wan'ch</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>d</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>fang'shi</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>xiao'lv</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>jiao'di</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>you</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>jia'gu</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>chang'shang</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>jian'r'x</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>wen't</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>fen'ji</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>an'xu</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>jia'z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 业内最早的组件化支持库
 2. 通过注解静态方法的方式暴露服务</t>
     <rPh sb="3" eb="4">
@@ -4656,6 +4337,134 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ju'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 阿里出品，使用者众多，QQ群里交流比较活跃&lt;br&gt;2. 支持分级按需加载 &lt;br&gt;3. 是一个路由框架，并不是完整的组件化方案，可作为组件化架构的通信引擎</t>
+    <rPh sb="3" eb="4">
+      <t>a'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'yong'zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong'duo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jiao'liu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>huo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 阿里出品，使用者众多，QQ群里交流比较活跃
+2. 支持分级按需加载
+3. 是一个路由框架，并不是完整的组件化方案，可作为组件化架构的通信引擎</t>
+    <rPh sb="3" eb="4">
+      <t>a'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'yong'zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong'duo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jiao'liu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>huo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本(1.3.0)开始支持通过插件完成路由注册
+1. apt生成各module的路由表
+2. TrasnformAPI + ASM扫描路由表并注册到LogisticsCenter中，无需手动维护组件列表</t>
+    <rPh sb="0" eb="1">
+      <t>xin'ban'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kai's</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>t'guo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cha'j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'ch</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>sh'c</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>d</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>lu'you'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本(1.3.0)开始支持通过插件完成路由注册&lt;br&gt;1. apt生成各module的路由表&lt;br&gt;2. TrasnformAPI + ASM扫描路由表并注册到LogisticsCenter中，无需手动维护组件列表</t>
+    <rPh sb="34" eb="35">
+      <t>sh'c</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>d</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>lu'you'b</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>lu'you'b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5078,11 +4887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5102,45 +4911,45 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.15">
@@ -5148,22 +4957,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5194,45 +5003,45 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5260,7 +5069,7 @@
     </row>
     <row r="8" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -5289,7 +5098,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -5309,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -5332,22 +5141,22 @@
         <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.15">
@@ -5358,7 +5167,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>32</v>
@@ -5367,7 +5176,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
@@ -5375,7 +5184,7 @@
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -5384,39 +5193,39 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.15">
@@ -5424,45 +5233,45 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5490,22 +5299,22 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -5516,13 +5325,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -5531,7 +5340,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.15">
@@ -5559,19 +5368,19 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -5582,7 +5391,7 @@
     </row>
     <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -5591,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
@@ -5605,7 +5414,7 @@
     </row>
     <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -5628,7 +5437,7 @@
     </row>
     <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -5651,7 +5460,7 @@
     </row>
     <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -5677,165 +5486,165 @@
         <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1">
         <v>686844583</v>
@@ -5844,16 +5653,16 @@
         <v>693097923</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F33" s="9">
         <v>108895031</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5867,11 +5676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5891,22 +5700,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5934,25 +5743,25 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5980,7 +5789,7 @@
     </row>
     <row r="5" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -6009,13 +5818,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -6029,7 +5838,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -6052,22 +5861,22 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.15">
@@ -6078,7 +5887,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>32</v>
@@ -6087,7 +5896,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>32</v>
@@ -6095,7 +5904,7 @@
     </row>
     <row r="10" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -6104,39 +5913,39 @@
         <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="103" customHeight="1" x14ac:dyDescent="0.15">
@@ -6144,45 +5953,45 @@
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="92" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6210,22 +6019,22 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -6236,13 +6045,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -6251,7 +6060,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6262,7 +6071,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
@@ -6279,19 +6088,19 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -6302,7 +6111,7 @@
     </row>
     <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
@@ -6311,7 +6120,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -6325,7 +6134,7 @@
     </row>
     <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -6348,7 +6157,7 @@
     </row>
     <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -6371,7 +6180,7 @@
     </row>
     <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -6397,165 +6206,165 @@
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>159</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1">
         <v>686844583</v>
@@ -6564,16 +6373,16 @@
         <v>693097923</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F30" s="9">
         <v>108895031</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
